--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aki_u/Documents/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D097A6A-AA17-F442-8C94-E37BBFC3310A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF95EB48-8ED5-A84D-AFD5-D2129AD51465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="1000" windowWidth="27900" windowHeight="15380" xr2:uid="{C003FF2E-E6A1-DF42-AF1C-D2C12A621532}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="02.29" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,6 +33,18 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>時刻</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジコク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -98,9 +110,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -138,7 +150,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -244,7 +256,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -386,7 +398,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -394,12 +406,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2782C8E-8A0B-A242-9B5A-7A7C02E1015F}">
-  <dimension ref="A1"/>
+  <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
